--- a/low-flow-index/dados-saida/tomazina.xlsx
+++ b/low-flow-index/dados-saida/tomazina.xlsx
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1.060969610314343E-11</v>
+        <v>1.060969610314343e-11</v>
       </c>
     </row>
     <row r="30" spans="1:7">

--- a/low-flow-index/dados-saida/tomazina.xlsx
+++ b/low-flow-index/dados-saida/tomazina.xlsx
@@ -437,10 +437,10 @@
         <v>46</v>
       </c>
       <c r="F2">
-        <v>0.6087347096947553</v>
+        <v>0.6084464414086496</v>
       </c>
       <c r="G2">
-        <v>0.4576952166841575</v>
+        <v>0.4578311208129717</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -460,10 +460,10 @@
         <v>156</v>
       </c>
       <c r="F3">
-        <v>0.9999451595769739</v>
+        <v>0.9999447356581859</v>
       </c>
       <c r="G3">
-        <v>0.9691636519708184</v>
+        <v>0.9689287255942727</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -483,10 +483,10 @@
         <v>38</v>
       </c>
       <c r="F4">
-        <v>0.5167880109280966</v>
+        <v>0.5165121012815286</v>
       </c>
       <c r="G4">
-        <v>0.4032499002568815</v>
+        <v>0.403473178712511</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>0.0137682549323299</v>
+        <v>0.01375752346727152</v>
       </c>
       <c r="G5">
-        <v>0.04501176282860406</v>
+        <v>0.04527232467091075</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,10 +529,10 @@
         <v>35</v>
       </c>
       <c r="F6">
-        <v>0.624528484030199</v>
+        <v>0.6242397005423086</v>
       </c>
       <c r="G6">
-        <v>0.4673590480012548</v>
+        <v>0.4674787439382169</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -552,10 +552,10 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>0.3533793448032798</v>
+        <v>0.353158036554023</v>
       </c>
       <c r="G7">
-        <v>0.3091894713390459</v>
+        <v>0.3095389987684915</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -575,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="F8">
-        <v>0.000177528826696702</v>
+        <v>0.0001773895039259757</v>
       </c>
       <c r="G8">
-        <v>0.003758534285085234</v>
+        <v>0.003803550045030081</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -598,10 +598,10 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <v>0.6768883583170757</v>
+        <v>0.6766017280201742</v>
       </c>
       <c r="G9">
-        <v>0.5003769702846711</v>
+        <v>0.5004402112462829</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -621,10 +621,10 @@
         <v>19</v>
       </c>
       <c r="F10">
-        <v>0.2271904920881131</v>
+        <v>0.2270341554440043</v>
       </c>
       <c r="G10">
-        <v>0.2328664144867621</v>
+        <v>0.2332813030340651</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -644,10 +644,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>0.0194766825897305</v>
+        <v>0.01946154586040979</v>
       </c>
       <c r="G11">
-        <v>0.05491338083453474</v>
+        <v>0.05520421452523292</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -667,10 +667,10 @@
         <v>21</v>
       </c>
       <c r="F12">
-        <v>0.02495137725450104</v>
+        <v>0.02493204011831837</v>
       </c>
       <c r="G12">
-        <v>0.06330942577804609</v>
+        <v>0.06362245105422577</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -690,10 +690,10 @@
         <v>16</v>
       </c>
       <c r="F13">
-        <v>0.09854273979943705</v>
+        <v>0.09846933712383343</v>
       </c>
       <c r="G13">
-        <v>0.1405959662075229</v>
+        <v>0.1410159719720372</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -713,10 +713,10 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <v>0.01316410147204123</v>
+        <v>0.01315383775866449</v>
       </c>
       <c r="G14">
-        <v>0.04386985397952268</v>
+        <v>0.04412660055987587</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -736,10 +736,10 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>0.02217760569735327</v>
+        <v>0.02216039370630377</v>
       </c>
       <c r="G15">
-        <v>0.05916402354577133</v>
+        <v>0.05946645692761088</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -759,10 +759,10 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <v>0.1745702161276831</v>
+        <v>0.1744459167882347</v>
       </c>
       <c r="G16">
-        <v>0.1979954732367492</v>
+        <v>0.1984240301963104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -782,10 +782,10 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>0.143740408911055</v>
+        <v>0.1436361137611276</v>
       </c>
       <c r="G17">
-        <v>0.1760372861708277</v>
+        <v>0.1764677139366133</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -799,16 +799,16 @@
         <v>16119</v>
       </c>
       <c r="D18">
-        <v>23.18990000000001</v>
+        <v>23.46990000000001</v>
       </c>
       <c r="E18" s="3">
         <v>15</v>
       </c>
       <c r="F18">
-        <v>0.4489755010658352</v>
+        <v>0.4526721544500714</v>
       </c>
       <c r="G18">
-        <v>0.3642140123380043</v>
+        <v>0.3667582675781225</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -828,10 +828,10 @@
         <v>262</v>
       </c>
       <c r="F19">
-        <v>0.9998233003247</v>
+        <v>0.9998220978720207</v>
       </c>
       <c r="G19">
-        <v>0.9566125047237402</v>
+        <v>0.9563306031676508</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -851,10 +851,10 @@
         <v>93</v>
       </c>
       <c r="F20">
-        <v>0.757589399721509</v>
+        <v>0.7573196306085901</v>
       </c>
       <c r="G20">
-        <v>0.5555363241450654</v>
+        <v>0.5555033019113632</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -874,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="F21">
-        <v>0.2420726065105679</v>
+        <v>0.2419077108676606</v>
       </c>
       <c r="G21">
-        <v>0.2422940520379917</v>
+        <v>0.2427032760626757</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -897,10 +897,10 @@
         <v>52</v>
       </c>
       <c r="F22">
-        <v>0.7324788754103602</v>
+        <v>0.732201879478483</v>
       </c>
       <c r="G22">
-        <v>0.537661942324556</v>
+        <v>0.5376602060615495</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -914,16 +914,16 @@
         <v>18012</v>
       </c>
       <c r="D23">
-        <v>97.77670000000001</v>
+        <v>97.88669999999999</v>
       </c>
       <c r="E23" s="3">
         <v>86</v>
       </c>
       <c r="F23">
-        <v>0.9191513493846923</v>
+        <v>0.9192203759829256</v>
       </c>
       <c r="G23">
-        <v>0.7042111178999104</v>
+        <v>0.7042290528300474</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -943,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>0.0002778572655156534</v>
+        <v>0.0002776392169658707</v>
       </c>
       <c r="G24">
-        <v>0.004852117275129211</v>
+        <v>0.004907132016620294</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -966,10 +966,10 @@
         <v>14</v>
       </c>
       <c r="F25">
-        <v>0.0006790703550641735</v>
+        <v>0.0006785375613231597</v>
       </c>
       <c r="G25">
-        <v>0.00807599916743533</v>
+        <v>0.008157288044784942</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -989,10 +989,10 @@
         <v>45</v>
       </c>
       <c r="F26">
-        <v>0.4536570794390133</v>
+        <v>0.4533978033522907</v>
       </c>
       <c r="G26">
-        <v>0.3668971551047082</v>
+        <v>0.367173748640045</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1012,10 +1012,10 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>0.1751710671450505</v>
+        <v>0.1750463868033239</v>
       </c>
       <c r="G27">
-        <v>0.1984102521541493</v>
+        <v>0.1988387200678634</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1035,10 +1035,10 @@
         <v>15</v>
       </c>
       <c r="F28">
-        <v>0.1500732506215365</v>
+        <v>0.1499647742511967</v>
       </c>
       <c r="G28">
-        <v>0.1806659589066516</v>
+        <v>0.1810964746431783</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1.060969610314343E-11</v>
+        <v>1.127217254994088E-11</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1081,10 +1081,10 @@
         <v>75</v>
       </c>
       <c r="F30">
-        <v>0.6743116007281011</v>
+        <v>0.6740247168352749</v>
       </c>
       <c r="G30">
-        <v>0.4987109232730643</v>
+        <v>0.4987770448785581</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1098,16 +1098,16 @@
         <v>19036</v>
       </c>
       <c r="D31">
-        <v>18.7518</v>
+        <v>18.7618</v>
       </c>
       <c r="E31" s="3">
         <v>21</v>
       </c>
       <c r="F31">
-        <v>0.3823163311590598</v>
+        <v>0.3822415748764585</v>
       </c>
       <c r="G31">
-        <v>0.325949245560632</v>
+        <v>0.3263708701736875</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1127,10 +1127,10 @@
         <v>50</v>
       </c>
       <c r="F32">
-        <v>0.6099218986727566</v>
+        <v>0.6096335740113142</v>
       </c>
       <c r="G32">
-        <v>0.4584176074950178</v>
+        <v>0.4585523059737434</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1150,10 +1150,10 @@
         <v>66</v>
       </c>
       <c r="F33">
-        <v>0.6086028007759414</v>
+        <v>0.6083145389283833</v>
       </c>
       <c r="G33">
-        <v>0.4576149903764551</v>
+        <v>0.4577510283391292</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1173,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>0.2181217275882116</v>
+        <v>0.2179707170835659</v>
       </c>
       <c r="G34">
-        <v>0.2270398096210584</v>
+        <v>0.2274578038405713</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1196,10 +1196,10 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <v>0.1618205512900034</v>
+        <v>0.1617044170480534</v>
       </c>
       <c r="G35">
-        <v>0.1890829783375663</v>
+        <v>0.1895129810478963</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1213,16 +1213,16 @@
         <v>20160</v>
       </c>
       <c r="D36">
-        <v>58.6346</v>
+        <v>59.0246</v>
       </c>
       <c r="E36" s="3">
         <v>66</v>
       </c>
       <c r="F36">
-        <v>0.7786493341984203</v>
+        <v>0.7805982579970123</v>
       </c>
       <c r="G36">
-        <v>0.5711655611519917</v>
+        <v>0.5727809400962199</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1236,16 +1236,16 @@
         <v>20551</v>
       </c>
       <c r="D37">
-        <v>48.03989999999999</v>
+        <v>48.31989999999999</v>
       </c>
       <c r="E37" s="3">
         <v>81</v>
       </c>
       <c r="F37">
-        <v>0.7092797550096299</v>
+        <v>0.7110851510595532</v>
       </c>
       <c r="G37">
-        <v>0.5217634881809056</v>
+        <v>0.5231958152334916</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1265,10 +1265,10 @@
         <v>12</v>
       </c>
       <c r="F38">
-        <v>0.2679317350685538</v>
+        <v>0.2677525152186538</v>
       </c>
       <c r="G38">
-        <v>0.2583333157781485</v>
+        <v>0.2587311920695206</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1288,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="F39">
-        <v>0.1914191091349222</v>
+        <v>0.1912842568353269</v>
       </c>
       <c r="G39">
-        <v>0.2094645991481054</v>
+        <v>0.2098900104659702</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1311,10 +1311,10 @@
         <v>25</v>
       </c>
       <c r="F40">
-        <v>0.4790725119496241</v>
+        <v>0.4788058113733167</v>
       </c>
       <c r="G40">
-        <v>0.381482705328676</v>
+        <v>0.3817384892266545</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1334,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="F41">
-        <v>0.1578405959869256</v>
+        <v>0.1577270418378584</v>
       </c>
       <c r="G41">
-        <v>0.1862546760926566</v>
+        <v>0.1866849459086947</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1357,10 +1357,10 @@
         <v>13</v>
       </c>
       <c r="F42">
-        <v>0.0005787821805158507</v>
+        <v>0.000578328049388648</v>
       </c>
       <c r="G42">
-        <v>0.007372704171742936</v>
+        <v>0.007448591284571476</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1374,16 +1374,16 @@
         <v>22330</v>
       </c>
       <c r="D43">
-        <v>15.9726</v>
+        <v>16.2426</v>
       </c>
       <c r="E43" s="3">
         <v>34</v>
       </c>
       <c r="F43">
-        <v>0.3365268833110386</v>
+        <v>0.3409045312313739</v>
       </c>
       <c r="G43">
-        <v>0.2993489962034219</v>
+        <v>0.3023954789193147</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1397,16 +1397,16 @@
         <v>22707</v>
       </c>
       <c r="D44">
-        <v>14.0048</v>
+        <v>14.2848</v>
       </c>
       <c r="E44" s="3">
         <v>32</v>
       </c>
       <c r="F44">
-        <v>0.3020677791865067</v>
+        <v>0.3068785741671662</v>
       </c>
       <c r="G44">
-        <v>0.278972988888357</v>
+        <v>0.2823382585595532</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1426,10 +1426,10 @@
         <v>33</v>
       </c>
       <c r="F45">
-        <v>0.001481013548732529</v>
+        <v>0.001479852022154908</v>
       </c>
       <c r="G45">
-        <v>0.01259814391056251</v>
+        <v>0.01271097392674629</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1449,10 +1449,10 @@
         <v>16</v>
       </c>
       <c r="F46">
-        <v>0.03378015073366919</v>
+        <v>0.03375409065079869</v>
       </c>
       <c r="G46">
-        <v>0.07537401238273587</v>
+        <v>0.07571423790563696</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1472,10 +1472,10 @@
         <v>15</v>
       </c>
       <c r="F47">
-        <v>0.349482616528114</v>
+        <v>0.3492630432320928</v>
       </c>
       <c r="G47">
-        <v>0.3069201139501276</v>
+        <v>0.3072721535328594</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1489,16 +1489,16 @@
         <v>24919</v>
       </c>
       <c r="D48">
-        <v>7.241199999999996</v>
+        <v>7.331199999999995</v>
       </c>
       <c r="E48" s="3">
         <v>21</v>
       </c>
       <c r="F48">
-        <v>0.1693929175878629</v>
+        <v>0.1711919823485806</v>
       </c>
       <c r="G48">
-        <v>0.1944024543986961</v>
+        <v>0.1961688617940932</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1518,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="F49">
-        <v>0.1471530343918639</v>
+        <v>0.1470464814949348</v>
       </c>
       <c r="G49">
-        <v>0.1785399429821766</v>
+        <v>0.1789704516879752</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1541,10 +1541,10 @@
         <v>145</v>
       </c>
       <c r="F50">
-        <v>0.9981768305095852</v>
+        <v>0.998167782994666</v>
       </c>
       <c r="G50">
-        <v>0.9128833550414088</v>
+        <v>0.9125087573140549</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1564,10 +1564,10 @@
         <v>37</v>
       </c>
       <c r="F51">
-        <v>0.7332123495434515</v>
+        <v>0.7329355375833169</v>
       </c>
       <c r="G51">
-        <v>0.5381736436974905</v>
+        <v>0.5381710117426567</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1587,10 +1587,10 @@
         <v>148</v>
       </c>
       <c r="F52">
-        <v>0.9951718166544361</v>
+        <v>0.9951515641116532</v>
       </c>
       <c r="G52">
-        <v>0.8824415466268261</v>
+        <v>0.8820414205041209</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1610,10 +1610,10 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>0.05515024651394287</v>
+        <v>0.05510817656228386</v>
       </c>
       <c r="G53">
-        <v>0.1000976229511947</v>
+        <v>0.1004796190614406</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1627,16 +1627,16 @@
         <v>28626</v>
       </c>
       <c r="D54">
-        <v>37.55350000000001</v>
+        <v>37.58350000000001</v>
       </c>
       <c r="E54" s="3">
         <v>110</v>
       </c>
       <c r="F54">
-        <v>0.619232843872359</v>
+        <v>0.6192379814608822</v>
       </c>
       <c r="G54">
-        <v>0.4641055757559845</v>
+        <v>0.4644105956984773</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1656,10 +1656,10 @@
         <v>57</v>
       </c>
       <c r="F55">
-        <v>0.1941027391155616</v>
+        <v>0.1939662312565074</v>
       </c>
       <c r="G55">
-        <v>0.2112621919774409</v>
+        <v>0.2116869850737677</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1679,10 +1679,10 @@
         <v>124</v>
       </c>
       <c r="F56">
-        <v>0.8959370675186982</v>
+        <v>0.8957520930073138</v>
       </c>
       <c r="G56">
-        <v>0.6764681700167754</v>
+        <v>0.6762331057412235</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1702,10 +1702,10 @@
         <v>10</v>
       </c>
       <c r="F57">
-        <v>0.04246738837491546</v>
+        <v>0.04243477487527735</v>
       </c>
       <c r="G57">
-        <v>0.08602563589365068</v>
+        <v>0.08638593850900239</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1725,10 +1725,10 @@
         <v>19</v>
       </c>
       <c r="F58">
-        <v>0.3055645019063692</v>
+        <v>0.3053657235176855</v>
       </c>
       <c r="G58">
-        <v>0.2810591002762457</v>
+        <v>0.2814375289283607</v>
       </c>
     </row>
   </sheetData>
